--- a/raw/HABV_93_Ehrenamtskartei.xlsx
+++ b/raw/HABV_93_Ehrenamtskartei.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12408"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="2687">
   <si>
     <t>Signatur</t>
   </si>
@@ -8082,6 +8082,9 @@
   </si>
   <si>
     <t>29.03.1923</t>
+  </si>
+  <si>
+    <t>XX.XX.19XX</t>
   </si>
 </sst>
 </file>
@@ -8662,22 +8665,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="F531" sqref="F531"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="D516" sqref="D516"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="59.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="59.09765625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8697,7 +8700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -8737,7 +8740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -8757,7 +8760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -8797,7 +8800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -8817,7 +8820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>47</v>
       </c>
@@ -8937,7 +8940,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -8997,7 +9000,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -9017,7 +9020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
@@ -9077,7 +9080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>74</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>77</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>80</v>
       </c>
@@ -9157,7 +9160,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>88</v>
       </c>
@@ -9177,7 +9180,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
@@ -9197,7 +9200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
@@ -9217,7 +9220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>97</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>102</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>106</v>
       </c>
@@ -9297,7 +9300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>109</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>111</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>114</v>
       </c>
@@ -9357,7 +9360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>122</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>126</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
@@ -9457,7 +9460,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>134</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>141</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>147</v>
       </c>
@@ -9557,7 +9560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>154</v>
       </c>
@@ -9597,7 +9600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>156</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>163</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>166</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>170</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>173</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>177</v>
       </c>
@@ -9737,7 +9740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>181</v>
       </c>
@@ -9757,7 +9760,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>184</v>
       </c>
@@ -9777,7 +9780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>186</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>189</v>
       </c>
@@ -9837,7 +9840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>192</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>195</v>
       </c>
@@ -9877,7 +9880,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>197</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>199</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>203</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>213</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>216</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>219</v>
       </c>
@@ -10057,7 +10060,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>221</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>223</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>226</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>229</v>
       </c>
@@ -10137,7 +10140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>233</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>236</v>
       </c>
@@ -10177,7 +10180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>239</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>242</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>246</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>248</v>
       </c>
@@ -10257,7 +10260,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>251</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>253</v>
       </c>
@@ -10297,7 +10300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>257</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>261</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>265</v>
       </c>
@@ -10355,7 +10358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>268</v>
       </c>
@@ -10415,7 +10418,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>277</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>280</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>283</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>290</v>
       </c>
@@ -10535,7 +10538,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>294</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>296</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>299</v>
       </c>
@@ -10595,7 +10598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>302</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>307</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>309</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>311</v>
       </c>
@@ -10695,7 +10698,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
@@ -10775,7 +10778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>325</v>
       </c>
@@ -10795,7 +10798,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>329</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>332</v>
       </c>
@@ -10835,7 +10838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>2047</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
         <v>2049</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>2053</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>2054</v>
       </c>
@@ -10915,7 +10918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>2057</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>2059</v>
       </c>
@@ -10975,7 +10978,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>2061</v>
       </c>
@@ -10995,7 +10998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>2062</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>2064</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>2065</v>
       </c>
@@ -11055,7 +11058,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
         <v>2067</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>2068</v>
       </c>
@@ -11095,7 +11098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>2069</v>
       </c>
@@ -11115,7 +11118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>2070</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>2072</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>2075</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>2077</v>
       </c>
@@ -11195,7 +11198,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>2078</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>2081</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
         <v>2082</v>
       </c>
@@ -11255,7 +11258,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>2084</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>2085</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>2086</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>2090</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>2091</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
         <v>2096</v>
       </c>
@@ -11475,7 +11478,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>2102</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="10" t="s">
         <v>2103</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="10" t="s">
         <v>2105</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="10" t="s">
         <v>2106</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="10" t="s">
         <v>2107</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="10" t="s">
         <v>2109</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="10" t="s">
         <v>2110</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>2112</v>
       </c>
@@ -11635,7 +11638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="10" t="s">
         <v>2114</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>2115</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="10" t="s">
         <v>2116</v>
       </c>
@@ -11695,7 +11698,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>2118</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="10" t="s">
         <v>2120</v>
       </c>
@@ -11735,7 +11738,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="10" t="s">
         <v>2121</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>2122</v>
       </c>
@@ -11775,7 +11778,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="10" t="s">
         <v>2124</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="10" t="s">
         <v>2125</v>
       </c>
@@ -11815,7 +11818,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="10" t="s">
         <v>2126</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>2127</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>2128</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>2129</v>
       </c>
@@ -11895,7 +11898,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>2131</v>
       </c>
@@ -11935,7 +11938,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>2133</v>
       </c>
@@ -11955,7 +11958,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>2134</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>2137</v>
       </c>
@@ -11995,7 +11998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>2138</v>
       </c>
@@ -12015,7 +12018,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>2140</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>2141</v>
       </c>
@@ -12055,7 +12058,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>2143</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>2144</v>
       </c>
@@ -12095,7 +12098,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>2146</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>2148</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>2149</v>
       </c>
@@ -12175,7 +12178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>2152</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>2153</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="10" t="s">
         <v>2154</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>2156</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>2158</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="10" t="s">
         <v>2159</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>2160</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="10" t="s">
         <v>2161</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>2162</v>
       </c>
@@ -12375,7 +12378,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>2165</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>2167</v>
       </c>
@@ -12415,7 +12418,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="10" t="s">
         <v>2168</v>
       </c>
@@ -12455,7 +12458,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A190" s="10" t="s">
         <v>2172</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>2173</v>
       </c>
@@ -12495,7 +12498,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="10" t="s">
         <v>2174</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
         <v>2176</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="10" t="s">
         <v>2179</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>2180</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="10" t="s">
         <v>2181</v>
       </c>
@@ -12595,7 +12598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="10" t="s">
         <v>2182</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="10" t="s">
         <v>2183</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>2184</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="10" t="s">
         <v>2186</v>
       </c>
@@ -12675,7 +12678,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="10" t="s">
         <v>2187</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>2188</v>
       </c>
@@ -12755,7 +12758,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
         <v>2192</v>
       </c>
@@ -12775,7 +12778,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="10" t="s">
         <v>2194</v>
       </c>
@@ -12795,7 +12798,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="10" t="s">
         <v>2196</v>
       </c>
@@ -12815,7 +12818,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>2197</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>2200</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
         <v>2201</v>
       </c>
@@ -12875,7 +12878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
         <v>2202</v>
       </c>
@@ -12895,7 +12898,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>2205</v>
       </c>
@@ -12915,7 +12918,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>2206</v>
       </c>
@@ -12935,7 +12938,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>2207</v>
       </c>
@@ -12955,7 +12958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>2209</v>
       </c>
@@ -12975,7 +12978,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>2213</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="10" t="s">
         <v>2214</v>
       </c>
@@ -13015,7 +13018,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>2215</v>
       </c>
@@ -13035,7 +13038,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>2216</v>
       </c>
@@ -13055,7 +13058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>2217</v>
       </c>
@@ -13075,7 +13078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>2219</v>
       </c>
@@ -13095,7 +13098,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>2220</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>2227</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>2228</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>2229</v>
       </c>
@@ -13175,7 +13178,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="10" t="s">
         <v>2230</v>
       </c>
@@ -13195,7 +13198,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>2231</v>
       </c>
@@ -13215,7 +13218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>2233</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>2234</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="10" t="s">
         <v>2235</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
         <v>2236</v>
       </c>
@@ -13295,7 +13298,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
         <v>2238</v>
       </c>
@@ -13315,7 +13318,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>2243</v>
       </c>
@@ -13335,7 +13338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>2244</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
         <v>2245</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
         <v>2246</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
         <v>2248</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>2249</v>
       </c>
@@ -13435,7 +13438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
         <v>2250</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
         <v>2252</v>
       </c>
@@ -13475,7 +13478,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
         <v>2253</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
         <v>2254</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="10" t="s">
         <v>2258</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
         <v>2259</v>
       </c>
@@ -13555,7 +13558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
         <v>2261</v>
       </c>
@@ -13575,7 +13578,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
         <v>2263</v>
       </c>
@@ -13595,7 +13598,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="10" t="s">
         <v>2264</v>
       </c>
@@ -13635,7 +13638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="10" t="s">
         <v>2266</v>
       </c>
@@ -13655,7 +13658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="10" t="s">
         <v>2267</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="10" t="s">
         <v>2272</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>2278</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>2280</v>
       </c>
@@ -13855,7 +13858,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>2281</v>
       </c>
@@ -13895,7 +13898,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>2283</v>
       </c>
@@ -13915,7 +13918,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>2285</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>2286</v>
       </c>
@@ -13955,7 +13958,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>2287</v>
       </c>
@@ -13975,7 +13978,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
         <v>2288</v>
       </c>
@@ -14015,7 +14018,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>2290</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="75.599999999999994" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>2292</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
         <v>2295</v>
       </c>
@@ -14095,7 +14098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>2296</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>2298</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>2299</v>
       </c>
@@ -14155,7 +14158,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="10" t="s">
         <v>2300</v>
       </c>
@@ -14175,7 +14178,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
         <v>2302</v>
       </c>
@@ -14195,7 +14198,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>2303</v>
       </c>
@@ -14215,7 +14218,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="10" t="s">
         <v>2305</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="10" t="s">
         <v>2306</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="10" t="s">
         <v>2307</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="10" t="s">
         <v>2309</v>
       </c>
@@ -14295,7 +14298,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="10" t="s">
         <v>2310</v>
       </c>
@@ -14315,7 +14318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="10" t="s">
         <v>2311</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="10" t="s">
         <v>2313</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="10" t="s">
         <v>2314</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
         <v>2316</v>
       </c>
@@ -14435,7 +14438,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="10" t="s">
         <v>2317</v>
       </c>
@@ -14555,7 +14558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="10" t="s">
         <v>2325</v>
       </c>
@@ -14575,7 +14578,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="10" t="s">
         <v>2326</v>
       </c>
@@ -14595,7 +14598,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="10" t="s">
         <v>2327</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="10" t="s">
         <v>2328</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="10" t="s">
         <v>2329</v>
       </c>
@@ -14655,7 +14658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="10" t="s">
         <v>2330</v>
       </c>
@@ -14675,7 +14678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>2331</v>
       </c>
@@ -14695,7 +14698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>2332</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="10" t="s">
         <v>2334</v>
       </c>
@@ -14775,7 +14778,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
         <v>2336</v>
       </c>
@@ -14815,7 +14818,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>2351</v>
       </c>
@@ -14835,7 +14838,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>2353</v>
       </c>
@@ -14875,7 +14878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
         <v>2355</v>
       </c>
@@ -14895,7 +14898,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="10" t="s">
         <v>2356</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
         <v>2358</v>
       </c>
@@ -14935,7 +14938,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
         <v>2360</v>
       </c>
@@ -14955,7 +14958,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="10" t="s">
         <v>2361</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
         <v>2362</v>
       </c>
@@ -14995,7 +14998,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
         <v>2363</v>
       </c>
@@ -15015,7 +15018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
         <v>2364</v>
       </c>
@@ -15035,7 +15038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>2365</v>
       </c>
@@ -15075,7 +15078,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="10" t="s">
         <v>2367</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
         <v>2368</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
         <v>2369</v>
       </c>
@@ -15135,7 +15138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="10" t="s">
         <v>2370</v>
       </c>
@@ -15155,7 +15158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
         <v>2372</v>
       </c>
@@ -15175,7 +15178,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
         <v>2373</v>
       </c>
@@ -15215,7 +15218,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="10" t="s">
         <v>2376</v>
       </c>
@@ -15235,7 +15238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
         <v>2377</v>
       </c>
@@ -15255,7 +15258,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="10" t="s">
         <v>2378</v>
       </c>
@@ -15275,7 +15278,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A331" s="10" t="s">
         <v>2380</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A332" s="10" t="s">
         <v>2382</v>
       </c>
@@ -15335,7 +15338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
         <v>2385</v>
       </c>
@@ -15355,7 +15358,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="10" t="s">
         <v>2387</v>
       </c>
@@ -15395,7 +15398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
         <v>2390</v>
       </c>
@@ -15555,7 +15558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="10" t="s">
         <v>2400</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="10" t="s">
         <v>2402</v>
       </c>
@@ -15635,7 +15638,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="10" t="s">
         <v>2405</v>
       </c>
@@ -15655,7 +15658,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="10" t="s">
         <v>2407</v>
       </c>
@@ -15675,7 +15678,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="10" t="s">
         <v>2408</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="10" t="s">
         <v>2409</v>
       </c>
@@ -15715,7 +15718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="10" t="s">
         <v>2410</v>
       </c>
@@ -15735,7 +15738,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="10" t="s">
         <v>2411</v>
       </c>
@@ -15755,7 +15758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="10" t="s">
         <v>2412</v>
       </c>
@@ -15775,7 +15778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="10" t="s">
         <v>2414</v>
       </c>
@@ -15795,7 +15798,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="10" t="s">
         <v>2415</v>
       </c>
@@ -15815,7 +15818,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="10" t="s">
         <v>2417</v>
       </c>
@@ -15835,7 +15838,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A359" s="10" t="s">
         <v>2419</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="10" t="s">
         <v>2422</v>
       </c>
@@ -15895,7 +15898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="10" t="s">
         <v>2423</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="10" t="s">
         <v>2425</v>
       </c>
@@ -15935,7 +15938,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="10" t="s">
         <v>2426</v>
       </c>
@@ -15955,7 +15958,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="10" t="s">
         <v>2428</v>
       </c>
@@ -15975,7 +15978,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="10" t="s">
         <v>2429</v>
       </c>
@@ -15995,7 +15998,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="13" t="s">
         <v>2430</v>
       </c>
@@ -16035,7 +16038,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="13" t="s">
         <v>2433</v>
       </c>
@@ -16055,7 +16058,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="13" t="s">
         <v>2434</v>
       </c>
@@ -16095,7 +16098,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="13" t="s">
         <v>2437</v>
       </c>
@@ -16115,7 +16118,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="13" t="s">
         <v>2438</v>
       </c>
@@ -16135,7 +16138,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="13" t="s">
         <v>2440</v>
       </c>
@@ -16155,7 +16158,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="13" t="s">
         <v>2442</v>
       </c>
@@ -16175,7 +16178,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="13" t="s">
         <v>2443</v>
       </c>
@@ -16195,7 +16198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="13" t="s">
         <v>2444</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="13" t="s">
         <v>2445</v>
       </c>
@@ -16235,7 +16238,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="13" t="s">
         <v>2446</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="13" t="s">
         <v>2447</v>
       </c>
@@ -16295,7 +16298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="13" t="s">
         <v>2449</v>
       </c>
@@ -16315,7 +16318,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="13" t="s">
         <v>2450</v>
       </c>
@@ -16335,7 +16338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="13" t="s">
         <v>2451</v>
       </c>
@@ -16355,7 +16358,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="13" t="s">
         <v>2453</v>
       </c>
@@ -16375,7 +16378,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="13" t="s">
         <v>2455</v>
       </c>
@@ -16395,7 +16398,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="13" t="s">
         <v>2456</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="13" t="s">
         <v>2457</v>
       </c>
@@ -16435,7 +16438,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="13" t="s">
         <v>2458</v>
       </c>
@@ -16455,7 +16458,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="13" t="s">
         <v>2459</v>
       </c>
@@ -16475,7 +16478,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="13" t="s">
         <v>2460</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A392" s="13" t="s">
         <v>2461</v>
       </c>
@@ -16515,7 +16518,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A393" s="13" t="s">
         <v>2462</v>
       </c>
@@ -16535,7 +16538,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A394" s="13" t="s">
         <v>2464</v>
       </c>
@@ -16555,7 +16558,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A395" s="13" t="s">
         <v>2466</v>
       </c>
@@ -16595,7 +16598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A397" s="13" t="s">
         <v>2468</v>
       </c>
@@ -16615,7 +16618,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A398" s="13" t="s">
         <v>2469</v>
       </c>
@@ -16635,7 +16638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A399" s="13" t="s">
         <v>2470</v>
       </c>
@@ -16695,7 +16698,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A402" s="13" t="s">
         <v>2474</v>
       </c>
@@ -16715,7 +16718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A403" s="13" t="s">
         <v>2475</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A404" s="13" t="s">
         <v>2476</v>
       </c>
@@ -16755,7 +16758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A405" s="13" t="s">
         <v>2477</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A411" s="13" t="s">
         <v>2484</v>
       </c>
@@ -16895,7 +16898,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A412" s="13" t="s">
         <v>2485</v>
       </c>
@@ -16915,7 +16918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A413" s="13" t="s">
         <v>2486</v>
       </c>
@@ -16935,7 +16938,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A414" s="13" t="s">
         <v>2487</v>
       </c>
@@ -16955,7 +16958,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A415" s="13" t="s">
         <v>2488</v>
       </c>
@@ -16975,7 +16978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A416" s="13" t="s">
         <v>2489</v>
       </c>
@@ -17035,7 +17038,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A419" s="13" t="s">
         <v>2492</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A420" s="13" t="s">
         <v>2494</v>
       </c>
@@ -17095,7 +17098,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A422" s="13" t="s">
         <v>2497</v>
       </c>
@@ -17115,7 +17118,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A423" s="13" t="s">
         <v>2498</v>
       </c>
@@ -17135,7 +17138,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A424" s="13" t="s">
         <v>2499</v>
       </c>
@@ -17195,7 +17198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A427" s="13" t="s">
         <v>2502</v>
       </c>
@@ -17215,7 +17218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A428" s="13" t="s">
         <v>2503</v>
       </c>
@@ -17235,7 +17238,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A429" s="13" t="s">
         <v>2505</v>
       </c>
@@ -17255,7 +17258,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A430" s="13" t="s">
         <v>2507</v>
       </c>
@@ -17275,7 +17278,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A431" s="13" t="s">
         <v>2508</v>
       </c>
@@ -17295,7 +17298,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A432" s="13" t="s">
         <v>2509</v>
       </c>
@@ -17315,7 +17318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A433" s="13" t="s">
         <v>2510</v>
       </c>
@@ -17335,7 +17338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A434" s="13" t="s">
         <v>2511</v>
       </c>
@@ -17355,7 +17358,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A435" s="13" t="s">
         <v>2512</v>
       </c>
@@ -17375,7 +17378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A436" s="13" t="s">
         <v>2514</v>
       </c>
@@ -17395,7 +17398,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A437" s="13" t="s">
         <v>2515</v>
       </c>
@@ -17435,7 +17438,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A439" s="13" t="s">
         <v>2517</v>
       </c>
@@ -17455,7 +17458,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A440" s="13" t="s">
         <v>2518</v>
       </c>
@@ -17475,7 +17478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A441" s="13" t="s">
         <v>2520</v>
       </c>
@@ -17515,7 +17518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A443" s="13" t="s">
         <v>2523</v>
       </c>
@@ -17555,7 +17558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A445" s="13" t="s">
         <v>2525</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A446" s="13" t="s">
         <v>2526</v>
       </c>
@@ -17595,7 +17598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A447" s="13" t="s">
         <v>2527</v>
       </c>
@@ -17615,7 +17618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A448" s="13" t="s">
         <v>2528</v>
       </c>
@@ -17635,7 +17638,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A449" s="13" t="s">
         <v>2529</v>
       </c>
@@ -17655,7 +17658,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A450" s="13" t="s">
         <v>2530</v>
       </c>
@@ -17809,7 +17812,7 @@
         <v>1816</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>1157</v>
+        <v>2686</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>2083</v>
@@ -19309,7 +19312,7 @@
         <v>1957</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>1157</v>
+        <v>2686</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>2629</v>
@@ -19815,7 +19818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A558" s="13" t="s">
         <v>2662</v>
       </c>
